--- a/learning/productCase.xlsx
+++ b/learning/productCase.xlsx
@@ -103,10 +103,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -117,6 +117,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -124,17 +184,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,30 +207,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,77 +238,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,43 +270,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,139 +432,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,60 +461,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -537,7 +483,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,6 +522,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -569,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,19 +581,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,112 +602,112 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,7 +1040,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A7" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1214,15 +1214,196 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2222</v>
+      </c>
+      <c r="D4">
+        <v>2222</v>
+      </c>
+      <c r="E4">
+        <v>22222</v>
+      </c>
+      <c r="F4">
+        <v>22222</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>